--- a/Tables/Word_similarity_summary_combined_clics3based_SimLex.xlsx
+++ b/Tables/Word_similarity_summary_combined_clics3based_SimLex.xlsx
@@ -184,46 +184,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1719.0</v>
+        <v>1578.0</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>793.0</v>
+        <v>1028.0</v>
       </c>
       <c r="G2" t="n">
         <v>999.0</v>
       </c>
       <c r="H2" t="n">
-        <v>246.0</v>
+        <v>251.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.24624624624624625</v>
+        <v>0.25125125125125125</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4706861135298178</v>
+        <v>0.4576363201526125</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4133038036032512</v>
+        <v>0.4581318707460931</v>
       </c>
       <c r="L2" t="n">
-        <v>0.29379345671136126</v>
+        <v>0.3282773634922184</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3707205009162481</v>
+        <v>0.40571502293460304</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3066809449717698</v>
+        <v>0.4157145859831517</v>
       </c>
       <c r="O2" t="n">
-        <v>0.20920390787525292</v>
+        <v>0.2919333962138699</v>
       </c>
       <c r="P2" t="n">
-        <v>5.748190677624334E-15</v>
+        <v>2.1383665826042528E-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4404499482141274E-11</v>
+        <v>1.9887598270797945E-14</v>
       </c>
     </row>
   </sheetData>
